--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3688.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3688.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.290437958610595</v>
+        <v>4.083826541900635</v>
       </c>
       <c r="B1">
-        <v>2.784842023577351</v>
+        <v>4.010826110839844</v>
       </c>
       <c r="C1">
-        <v>8.274029463363435</v>
+        <v>2.616103172302246</v>
       </c>
       <c r="D1">
-        <v>2.041077547363548</v>
+        <v>2.221597671508789</v>
       </c>
       <c r="E1">
-        <v>1.100133004654791</v>
+        <v>1.767534494400024</v>
       </c>
     </row>
   </sheetData>
